--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,45 @@
     <t xml:space="preserve">      Devs</t>
   </si>
   <si>
+    <t xml:space="preserve">         Devs Insurance</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Pillar Insurance Springfield</t>
+  </si>
+  <si>
+    <t>Check               2001</t>
+  </si>
+  <si>
+    <t>Devs Checking (7527)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Devs Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
+    <t>02/11/2021</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -71,15 +110,9 @@
     <t>01/04/2021</t>
   </si>
   <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
     <t>Amazon Web Services</t>
   </si>
   <si>
-    <t>Devs Checking (7527)</t>
-  </si>
-  <si>
     <t>01/05/2021</t>
   </si>
   <si>
@@ -89,6 +122,21 @@
     <t>Office 365 Business Essentials ($5/mo/user)</t>
   </si>
   <si>
+    <t>02/04/2021</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2058 02/04/21 DBU05BHI</t>
+  </si>
+  <si>
+    <t>02/05/2021</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>NAME.COM, INC DBT CRD 1221 02/06/21 DBH791RU</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -101,7 +149,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Monday, Feb 08, 2021 04:33:06 PM GMT-8 - Accrual Basis</t>
+    <t>Tuesday, Mar 09, 2021 06:08:21 AM GMT-8 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -110,7 +158,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January 2021</t>
+    <t>January - February, 2021</t>
   </si>
 </sst>
 </file>
@@ -217,26 +265,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.953125" customWidth="true"/>
+    <col min="1" max="1" width="39.53125" customWidth="true"/>
     <col min="2" max="2" width="9.453125" customWidth="true"/>
     <col min="3" max="3" width="10.3125" customWidth="true"/>
     <col min="4" max="4" width="8.59375" customWidth="true"/>
     <col min="5" max="5" width="8.59375" customWidth="true"/>
     <col min="6" max="6" width="32.65625" customWidth="true"/>
-    <col min="7" max="7" width="55.859375" customWidth="true"/>
+    <col min="7" max="7" width="76.484375" customWidth="true"/>
     <col min="8" max="8" width="19.765625" customWidth="true"/>
     <col min="9" max="9" width="7.734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -249,7 +297,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -262,7 +310,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -326,8 +374,12 @@
       <c r="C10" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E10" t="n" s="3">
+        <v>2001.0</v>
+      </c>
       <c r="F10" t="s" s="3">
         <v>13</v>
       </c>
@@ -338,125 +390,303 @@
         <v>15</v>
       </c>
       <c r="I10" t="n" s="4">
-        <v>14.99</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" t="s" s="3">
+      <c r="A11" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="H11" t="n" s="5">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="H11" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="I11" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D12" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E12" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="I12" t="n" s="4">
-        <v>10.29</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" t="s" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s" s="3">
         <v>15</v>
       </c>
       <c r="I13" t="n" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n" s="5">
-        <v>65.28</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="H15" t="n" s="5">
-        <v>65.28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="G16" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="H16" t="n" s="5">
-        <v>65.28</v>
+      <c r="H16" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="I16" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="B17" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="H17" t="n" s="5">
-        <v>-65.28</v>
+      <c r="I17" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E18" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="F18" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n" s="4">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="I19" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="B20" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="G20" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="I20" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="I21" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="I23" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I24" t="n" s="4">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H25" t="n" s="5">
+        <v>362.97</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H26" t="n" s="5">
+        <v>1516.97</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H27" t="n" s="5">
+        <v>1516.97</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H28" t="n" s="5">
+        <v>-1516.97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,39 @@
     <t>Ordinary Revenue/Expenditures</t>
   </si>
   <si>
+    <t xml:space="preserve">   Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Devs Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Devs Sponsorships</t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>Pledge</t>
+  </si>
+  <si>
+    <t>Hearo Technologies</t>
+  </si>
+  <si>
+    <t>Tier 1 Sponsor benefits for 12 months</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Devs Sponsorships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total for Devs Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Total for Revenue</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Expenditures</t>
   </si>
   <si>
@@ -137,6 +170,18 @@
     <t>NAME.COM, INC DBT CRD 1221 02/06/21 DBH791RU</t>
   </si>
   <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>03/03/2021</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2340 03/03/21 DBJVUWQ6</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -149,7 +194,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Tuesday, Mar 09, 2021 06:08:21 AM GMT-8 - Accrual Basis</t>
+    <t>Tuesday, Apr 13, 2021 05:27:14 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -158,7 +203,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - February, 2021</t>
+    <t>January - March, 2021</t>
   </si>
 </sst>
 </file>
@@ -265,7 +310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -278,13 +323,13 @@
     <col min="5" max="5" width="8.59375" customWidth="true"/>
     <col min="6" max="6" width="32.65625" customWidth="true"/>
     <col min="7" max="7" width="76.484375" customWidth="true"/>
-    <col min="8" max="8" width="19.765625" customWidth="true"/>
+    <col min="8" max="8" width="22.34375" customWidth="true"/>
     <col min="9" max="9" width="7.734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -297,7 +342,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -310,7 +355,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -375,10 +420,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="n" s="3">
-        <v>2001.0</v>
+        <v>1180.0</v>
       </c>
       <c r="E10" t="n" s="3">
-        <v>2001.0</v>
+        <v>1180.0</v>
       </c>
       <c r="F10" t="s" s="3">
         <v>13</v>
@@ -390,7 +435,7 @@
         <v>15</v>
       </c>
       <c r="I10" t="n" s="4">
-        <v>1148.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="11">
@@ -398,295 +443,448 @@
         <v>16</v>
       </c>
       <c r="H11" t="n" s="5">
-        <v>1148.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="H12" t="n" s="5">
+        <v>600.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
+      <c r="A13" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="I13" t="n" s="4">
-        <v>6.0</v>
+      <c r="H13" t="n" s="5">
+        <v>600.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H14" t="n" s="5">
-        <v>6.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="I16" t="n" s="4">
-        <v>14.99</v>
+      <c r="A16" t="s" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D17" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E17" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="F17" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="G17" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s" s="3">
-        <v>30</v>
-      </c>
       <c r="H17" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="I17" t="n" s="4">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H18" t="n" s="5">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="I17" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D18" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E18" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="F18" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="I18" t="n" s="4">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="I19" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I20" t="n" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="I21" t="n" s="4">
-        <v>14.99</v>
+      <c r="A21" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H21" t="n" s="5">
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="I22" t="n" s="4">
-        <v>10.22</v>
+      <c r="A22" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" t="s" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s" s="3">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I23" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" t="s" s="3">
+        <v>40</v>
+      </c>
       <c r="G24" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I24" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E25" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="F25" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="I25" t="n" s="4">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I26" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I27" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="H24" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="I24" t="n" s="4">
+      <c r="G28" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I28" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="I29" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I30" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="I31" t="n" s="4">
         <v>232.48</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
+    <row r="32">
+      <c r="B32" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I32" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="H25" t="n" s="5">
-        <v>362.97</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H26" t="n" s="5">
-        <v>1516.97</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="H33" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I33" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="H27" t="n" s="5">
-        <v>1516.97</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H28" t="n" s="5">
-        <v>-1516.97</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="G34" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="I34" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="G35" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I35" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H36" t="n" s="5">
+        <v>427.38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H37" t="n" s="5">
+        <v>1581.38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H38" t="n" s="5">
+        <v>1581.38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="H39" t="n" s="5">
+        <v>-981.38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A42:I42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,15 @@
     <t>Accounts Receivable (A/R)</t>
   </si>
   <si>
+    <t>04/23/2021</t>
+  </si>
+  <si>
+    <t>Jack Henry &amp; Associates</t>
+  </si>
+  <si>
+    <t>Tier 2 Sponsor benefits for 12 months</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Sponsorships</t>
   </si>
   <si>
@@ -98,15 +107,51 @@
     <t xml:space="preserve">         Total for Devs Insurance</t>
   </si>
   <si>
+    <t xml:space="preserve">         Devs Member Meals</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>Pizza Hut (Grant)</t>
+  </si>
+  <si>
+    <t>DBT CRD 1457 DBUCM PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Devs Member Meals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Devs Office Supplies</t>
+  </si>
+  <si>
+    <t>04/09/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1258 DBJV2B7Q NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>04/15/2021</t>
+  </si>
+  <si>
+    <t>Meetup.com</t>
+  </si>
+  <si>
+    <t>DBT CRD 0609 DBJ5MLTB MEETUP ORG SUB 6M 6468384815 NY C#4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Devs Office Supplies</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Devs Payment Fees (Intuit)</t>
   </si>
   <si>
     <t>02/11/2021</t>
   </si>
   <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
     <t>QuickBooks Payments</t>
   </si>
   <si>
@@ -125,21 +170,21 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>Logic Forte (QuickBooks Subscription)</t>
+  </si>
+  <si>
+    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
     <t>Zoom Video</t>
   </si>
   <si>
     <t>Zoom Pro Monthly Subscription</t>
   </si>
   <si>
-    <t>Accounts Payable (A/P)</t>
-  </si>
-  <si>
-    <t>Logic Forte (QuickBooks Subscription)</t>
-  </si>
-  <si>
-    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
-  </si>
-  <si>
     <t>01/04/2021</t>
   </si>
   <si>
@@ -182,6 +227,27 @@
     <t>03/05/2021</t>
   </si>
   <si>
+    <t>04/01/2021</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0632 DBWLJUXT AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>05/01/2021</t>
+  </si>
+  <si>
+    <t>05/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0136 DBXCN325 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -194,7 +260,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Tuesday, Apr 13, 2021 05:27:14 AM GMT-7 - Accrual Basis</t>
+    <t>Saturday, Jun 19, 2021 06:39:06 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -203,7 +269,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - March, 2021</t>
+    <t>January - May, 2021</t>
   </si>
 </sst>
 </file>
@@ -310,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,7 +395,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -342,7 +408,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -355,7 +421,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -439,294 +505,232 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="B11" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="H11" t="n" s="5">
-        <v>600.0</v>
+      <c r="C11" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="E11" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n" s="5">
-        <v>600.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n" s="5">
-        <v>600.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="H14" t="n" s="5">
+        <v>2100.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D17" t="n" s="3">
+      <c r="A17" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="D18" t="n" s="3">
         <v>2001.0</v>
       </c>
-      <c r="E17" t="n" s="3">
+      <c r="E18" t="n" s="3">
         <v>2001.0</v>
       </c>
-      <c r="F17" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="I17" t="n" s="4">
-        <v>1148.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="F18" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="H18" t="n" s="5">
+      <c r="G18" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I18" t="n" s="4">
         <v>1148.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H19" t="n" s="5">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="3">
+      <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="I20" t="n" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="H21" t="n" s="5">
-        <v>6.0</v>
+      <c r="I21" t="n" s="4">
+        <v>71.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H22" t="n" s="5">
+        <v>71.45</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" t="s" s="3">
+      <c r="A23" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I23" t="n" s="4">
-        <v>14.99</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" t="s" s="3">
-        <v>40</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="G24" t="s" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I24" t="n" s="4">
-        <v>20.0</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="D25" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E25" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="F25" t="s" s="3">
+      <c r="H25" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I25" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="I25" t="n" s="4">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="H26" t="n" s="5">
+        <v>116.92</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I26" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="H27" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I27" t="n" s="4">
-        <v>14.99</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="3">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" t="s" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I28" t="n" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s" s="3">
+      <c r="A29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H29" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="I29" t="n" s="4">
-        <v>10.22</v>
+      <c r="H29" t="n" s="5">
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="3">
+      <c r="A30" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I30" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="31">
@@ -734,38 +738,40 @@
         <v>50</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" t="s" s="3">
+        <v>52</v>
+      </c>
       <c r="G31" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s" s="3">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I31" t="n" s="4">
-        <v>232.48</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" t="s" s="3">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="3">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="3">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I32" t="n" s="4">
         <v>14.99</v>
@@ -773,118 +779,470 @@
     </row>
     <row r="33">
       <c r="B33" t="s" s="3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D33" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E33" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="F33" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s" s="3">
-        <v>41</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" t="s" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I33" t="n" s="4">
-        <v>20.0</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" t="s" s="3">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s" s="3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s" s="3">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I34" t="n" s="4">
-        <v>9.42</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="3">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" t="s" s="3">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s" s="3">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I35" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="G36" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I36" t="n" s="4">
         <v>20.0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
+    <row r="37">
+      <c r="B37" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I37" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H38" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I38" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="H39" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I39" t="n" s="4">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="G40" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I40" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="H36" t="n" s="5">
-        <v>427.38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H37" t="n" s="5">
-        <v>1581.38</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="H41" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I41" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="H38" t="n" s="5">
-        <v>1581.38</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="H39" t="n" s="5">
-        <v>-981.38</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="s">
+      <c r="G42" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I42" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
+      <c r="G43" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I43" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="G44" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="H44" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I44" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I45" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G46" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H46" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I46" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I47" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I48" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="G49" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="H49" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I49" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I50" t="n" s="4">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G51" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H51" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="I51" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="n" s="5">
+        <v>557.59</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="n" s="5">
+        <v>1899.96</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="n" s="5">
+        <v>1899.96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="n" s="5">
+        <v>200.04</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A58:I58"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,12 @@
     <t>DBT CRD 1457 DBUCM PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>06/04/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1454 DBIQT36L PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
   </si>
   <si>
@@ -170,21 +176,21 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>Zoom Video</t>
+  </si>
+  <si>
+    <t>Zoom Pro Monthly Subscription</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
     <t>Logic Forte (QuickBooks Subscription)</t>
   </si>
   <si>
     <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
   </si>
   <si>
-    <t>Accounts Payable (A/P)</t>
-  </si>
-  <si>
-    <t>Zoom Video</t>
-  </si>
-  <si>
-    <t>Zoom Pro Monthly Subscription</t>
-  </si>
-  <si>
     <t>01/04/2021</t>
   </si>
   <si>
@@ -248,6 +254,15 @@
     <t>05/05/2021</t>
   </si>
   <si>
+    <t>06/01/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0835 DBVW5ODF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -260,7 +275,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Saturday, Jun 19, 2021 06:39:06 AM GMT-7 - Accrual Basis</t>
+    <t>Thursday, Jul 29, 2021 07:18:52 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -269,7 +284,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - May, 2021</t>
+    <t>January - June, 2021</t>
   </si>
 </sst>
 </file>
@@ -376,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -395,7 +410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -408,7 +423,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -421,7 +436,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -631,36 +646,38 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="B22" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="H22" t="n" s="5">
-        <v>71.45</v>
+      <c r="C22" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I22" t="n" s="4">
+        <v>73.99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H23" t="n" s="5">
+        <v>145.44</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" t="s" s="3">
+      <c r="A24" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="H24" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I24" t="n" s="4">
-        <v>17.98</v>
       </c>
     </row>
     <row r="25">
@@ -672,106 +689,104 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" t="s" s="3">
+      <c r="F25" s="3"/>
+      <c r="G25" t="s" s="3">
         <v>41</v>
-      </c>
-      <c r="G25" t="s" s="3">
-        <v>42</v>
       </c>
       <c r="H25" t="s" s="3">
         <v>29</v>
       </c>
       <c r="I25" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I26" t="n" s="4">
         <v>98.94</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H26" t="n" s="5">
-        <v>116.92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H27" t="n" s="5">
+        <v>116.92</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s" s="3">
+      <c r="A28" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="G28" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="H28" t="s" s="3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="H29" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="I28" t="n" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H29" t="n" s="5">
+      <c r="I29" t="n" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H30" t="n" s="5">
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s" s="3">
+      <c r="A31" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="G31" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="H31" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="I31" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="G32" t="s" s="3">
-        <v>56</v>
-      </c>
       <c r="H32" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I32" t="n" s="4">
         <v>14.99</v>
@@ -779,26 +794,24 @@
     </row>
     <row r="33">
       <c r="B33" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" t="s" s="3">
         <v>57</v>
       </c>
-      <c r="C33" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="D33" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E33" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="F33" t="s" s="3">
+      <c r="G33" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="G33" s="3"/>
       <c r="H33" t="s" s="3">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I33" t="n" s="4">
-        <v>10.29</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="34">
@@ -806,43 +819,45 @@
         <v>59</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D34" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E34" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="F34" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="G34" t="s" s="3">
-        <v>61</v>
-      </c>
+      <c r="G34" s="3"/>
       <c r="H34" t="s" s="3">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I34" t="n" s="4">
-        <v>20.0</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="3">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" t="s" s="3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s" s="3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H35" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I35" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="36">
@@ -850,43 +865,43 @@
         <v>25</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" t="s" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I36" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="G37" t="s" s="3">
-        <v>63</v>
-      </c>
       <c r="H37" t="s" s="3">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I37" t="n" s="4">
-        <v>10.22</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="38">
@@ -894,7 +909,7 @@
         <v>64</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -902,33 +917,35 @@
         <v>60</v>
       </c>
       <c r="G38" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s" s="3">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I38" t="n" s="4">
-        <v>20.0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" t="s" s="3">
+        <v>62</v>
+      </c>
       <c r="G39" t="s" s="3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H39" t="s" s="3">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I39" t="n" s="4">
-        <v>232.48</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="40">
@@ -936,40 +953,38 @@
         <v>67</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" t="s" s="3">
-        <v>52</v>
-      </c>
+      <c r="F40" s="3"/>
       <c r="G40" t="s" s="3">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s" s="3">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I40" t="n" s="4">
-        <v>20.0</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="G41" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="G41" t="s" s="3">
-        <v>56</v>
-      </c>
       <c r="H41" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I41" t="n" s="4">
         <v>14.99</v>
@@ -977,24 +992,24 @@
     </row>
     <row r="42">
       <c r="B42" t="s" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="G42" t="s" s="3">
-        <v>69</v>
-      </c>
       <c r="H42" t="s" s="3">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I42" t="n" s="4">
-        <v>9.42</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="43">
@@ -1002,7 +1017,7 @@
         <v>70</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1010,32 +1025,32 @@
         <v>60</v>
       </c>
       <c r="G43" t="s" s="3">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s" s="3">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I43" t="n" s="4">
-        <v>20.0</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" t="s" s="3">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s" s="3">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I44" t="n" s="4">
         <v>20.0</v>
@@ -1043,21 +1058,21 @@
     </row>
     <row r="45">
       <c r="B45" t="s" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="G45" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="G45" t="s" s="3">
-        <v>56</v>
-      </c>
       <c r="H45" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I45" t="n" s="4">
         <v>14.99</v>
@@ -1065,21 +1080,21 @@
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" t="s" s="3">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s" s="3">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H46" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I46" t="n" s="4">
         <v>20.0</v>
@@ -1087,24 +1102,24 @@
     </row>
     <row r="47">
       <c r="B47" t="s" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" t="s" s="3">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s" s="3">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H47" t="s" s="3">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I47" t="n" s="4">
-        <v>10.25</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="48">
@@ -1112,40 +1127,40 @@
         <v>74</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" t="s" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s" s="3">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="3">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I48" t="n" s="4">
-        <v>14.99</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" t="s" s="3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s" s="3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I49" t="n" s="4">
         <v>20.0</v>
@@ -1153,7 +1168,7 @@
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s" s="3">
         <v>33</v>
@@ -1161,10 +1176,10 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" t="s" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="3">
         <v>29</v>
@@ -1175,74 +1190,140 @@
     </row>
     <row r="51">
       <c r="B51" t="s" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" t="s" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G51" t="s" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H51" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I51" t="n" s="4">
         <v>20.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="n" s="5">
-        <v>557.59</v>
+      <c r="B52" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="G52" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="H52" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="I52" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H53" t="n" s="5">
-        <v>1899.96</v>
+      <c r="B53" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I53" t="n" s="4">
+        <v>10.22</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H54" t="n" s="5">
-        <v>1899.96</v>
+      <c r="B54" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="I54" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H55" t="n" s="5">
-        <v>200.04</v>
+        <v>592.82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H56" t="n" s="5">
+        <v>2009.18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H57" t="n" s="5">
+        <v>2009.18</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="A58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="n" s="5">
+        <v>90.82</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A61:I61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,12 @@
     <t>Tier 2 Sponsor benefits for 12 months</t>
   </si>
   <si>
+    <t>07/27/2021</t>
+  </si>
+  <si>
+    <t>World Wide Technology</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Sponsorships</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
     <t>DBT CRD 1454 DBIQT36L PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1113 DBBXKMPK PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
   </si>
   <si>
@@ -149,6 +161,12 @@
     <t>DBT CRD 0609 DBJ5MLTB MEETUP ORG SUB 6M 6468384815 NY C#4443</t>
   </si>
   <si>
+    <t>07/12/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1137 DBV8SOB7 NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Office Supplies</t>
   </si>
   <si>
@@ -176,21 +194,21 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>Logic Forte (QuickBooks Subscription)</t>
+  </si>
+  <si>
+    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
     <t>Zoom Video</t>
   </si>
   <si>
     <t>Zoom Pro Monthly Subscription</t>
   </si>
   <si>
-    <t>Accounts Payable (A/P)</t>
-  </si>
-  <si>
-    <t>Logic Forte (QuickBooks Subscription)</t>
-  </si>
-  <si>
-    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
-  </si>
-  <si>
     <t>01/04/2021</t>
   </si>
   <si>
@@ -263,6 +281,18 @@
     <t>06/05/2021</t>
   </si>
   <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>07/05/2021</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0416 DBXE0VQF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -275,7 +305,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Thursday, Jul 29, 2021 07:18:52 AM GMT-7 - Accrual Basis</t>
+    <t>Sunday, Aug 08, 2021 10:23:07 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -284,7 +314,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - June, 2021</t>
+    <t>January - July, 2021</t>
   </si>
 </sst>
 </file>
@@ -391,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -410,7 +440,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -423,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -436,7 +466,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -546,236 +576,269 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="B12" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="H12" t="n" s="5">
-        <v>2100.0</v>
+      <c r="C12" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n" s="3">
+        <v>1182.0</v>
+      </c>
+      <c r="E12" t="n" s="3">
+        <v>1182.0</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I12" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n" s="5">
-        <v>2100.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n" s="5">
-        <v>2100.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H15" t="n" s="5">
+        <v>3600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s" s="3">
+      <c r="A18" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D18" t="n" s="3">
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D19" t="n" s="3">
         <v>2001.0</v>
       </c>
-      <c r="E18" t="n" s="3">
+      <c r="E19" t="n" s="3">
         <v>2001.0</v>
       </c>
-      <c r="F18" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s" s="3">
+      <c r="F19" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="I18" t="n" s="4">
-        <v>1148.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="G19" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="H19" t="n" s="5">
+      <c r="H19" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I19" t="n" s="4">
         <v>1148.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H20" t="n" s="5">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s" s="3">
+      <c r="A21" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I21" t="n" s="4">
-        <v>71.45</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="3">
         <v>37</v>
       </c>
       <c r="H22" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" t="n" s="4">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I23" t="n" s="4">
         <v>73.99</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H23" t="n" s="5">
-        <v>145.44</v>
-      </c>
-    </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>39</v>
+      <c r="B24" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I24" t="n" s="4">
+        <v>122.78</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I25" t="n" s="4">
+      <c r="A25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H25" t="n" s="5">
+        <v>268.22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I27" t="n" s="4">
         <v>17.98</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I26" t="n" s="4">
+    <row r="28">
+      <c r="B28" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I28" t="n" s="4">
         <v>98.94</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H27" t="n" s="5">
-        <v>116.92</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" t="s" s="3">
-        <v>48</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" t="s" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I29" t="n" s="4">
-        <v>6.0</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="n" s="5">
-        <v>6.0</v>
+        <v>156.88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -786,75 +849,42 @@
         <v>55</v>
       </c>
       <c r="H32" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I32" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I32" t="n" s="4">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" t="s" s="3">
+      <c r="H33" t="n" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="G33" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="H33" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="I33" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E34" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="F34" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I34" t="n" s="4">
-        <v>10.29</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="3">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" t="s" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I35" t="n" s="4">
         <v>20.0</v>
@@ -862,21 +892,21 @@
     </row>
     <row r="36">
       <c r="B36" t="s" s="3">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" t="s" s="3">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s" s="3">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I36" t="n" s="4">
         <v>14.99</v>
@@ -884,129 +914,133 @@
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D37" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E37" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="F37" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s" s="3">
-        <v>58</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G37" s="3"/>
       <c r="H37" t="s" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I37" t="n" s="4">
-        <v>20.0</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" t="s" s="3">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s" s="3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s" s="3">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I38" t="n" s="4">
-        <v>10.22</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="3">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" t="s" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I39" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s" s="3">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" t="s" s="3">
+        <v>60</v>
+      </c>
       <c r="G40" t="s" s="3">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s" s="3">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I40" t="n" s="4">
-        <v>232.48</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="3">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s" s="3">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I41" t="n" s="4">
-        <v>14.99</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" t="s" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s" s="3">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I42" t="n" s="4">
         <v>20.0</v>
@@ -1014,43 +1048,41 @@
     </row>
     <row r="43">
       <c r="B43" t="s" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" t="s" s="3">
-        <v>60</v>
-      </c>
+      <c r="F43" s="3"/>
       <c r="G43" t="s" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I43" t="n" s="4">
-        <v>9.42</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" t="s" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I44" t="n" s="4">
         <v>20.0</v>
@@ -1058,21 +1090,21 @@
     </row>
     <row r="45">
       <c r="B45" t="s" s="3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" t="s" s="3">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s" s="3">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H45" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I45" t="n" s="4">
         <v>14.99</v>
@@ -1080,43 +1112,43 @@
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" t="s" s="3">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s" s="3">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>20.0</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s" s="3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" t="s" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s" s="3">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I47" t="n" s="4">
         <v>20.0</v>
@@ -1124,10 +1156,10 @@
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1135,76 +1167,76 @@
         <v>60</v>
       </c>
       <c r="G48" t="s" s="3">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s" s="3">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I48" t="n" s="4">
-        <v>10.25</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" t="s" s="3">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s" s="3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" t="s" s="3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>9.98</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" t="s" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s" s="3">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I51" t="n" s="4">
         <v>20.0</v>
@@ -1212,21 +1244,21 @@
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" t="s" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H52" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I52" t="n" s="4">
         <v>20.0</v>
@@ -1234,96 +1266,228 @@
     </row>
     <row r="53">
       <c r="B53" t="s" s="3">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" t="s" s="3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G53" t="s" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I53" t="n" s="4">
-        <v>10.22</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" t="s" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s" s="3">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I54" t="n" s="4">
         <v>20.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H55" t="n" s="5">
-        <v>592.82</v>
+      <c r="B55" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H55" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="I55" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H56" t="n" s="5">
-        <v>2009.18</v>
+      <c r="B56" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="G56" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I56" t="n" s="4">
+        <v>10.22</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H57" t="n" s="5">
-        <v>2009.18</v>
+      <c r="B57" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="G57" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="H57" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="I57" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H58" t="n" s="5">
-        <v>90.82</v>
+      <c r="B58" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H58" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="I58" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="G59" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="H59" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="I59" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="G60" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I60" t="n" s="4">
+        <v>9.96</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="A61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H61" t="n" s="5">
+        <v>642.78</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H62" t="n" s="5">
+        <v>2221.88</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H63" t="n" s="5">
+        <v>2221.88</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="H64" t="n" s="5">
+        <v>1378.12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A67:I67"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -77,12 +77,27 @@
     <t>World Wide Technology</t>
   </si>
   <si>
+    <t>08/18/2021</t>
+  </si>
+  <si>
+    <t>O'reilly Auto</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Sponsorships</t>
   </si>
   <si>
     <t xml:space="preserve">      Total for Devs Revenue</t>
   </si>
   <si>
+    <t xml:space="preserve">      Discounts given</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total for Discounts given</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Revenue</t>
   </si>
   <si>
@@ -140,6 +155,12 @@
     <t>DBT CRD 1113 DBBXKMPK PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>08/06/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1215 DBYIB8HS PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
   </si>
   <si>
@@ -182,6 +203,9 @@
     <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
   </si>
   <si>
+    <t>08/30/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Payment Fees (Intuit)</t>
   </si>
   <si>
@@ -194,21 +218,21 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>Zoom Video</t>
+  </si>
+  <si>
+    <t>Zoom Pro Monthly Subscription</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
     <t>Logic Forte (QuickBooks Subscription)</t>
   </si>
   <si>
     <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
   </si>
   <si>
-    <t>Accounts Payable (A/P)</t>
-  </si>
-  <si>
-    <t>Zoom Video</t>
-  </si>
-  <si>
-    <t>Zoom Pro Monthly Subscription</t>
-  </si>
-  <si>
     <t>01/04/2021</t>
   </si>
   <si>
@@ -293,19 +317,46 @@
     <t>DBT CRD 0416 DBXE0VQF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
   </si>
   <si>
+    <t>08/01/2021</t>
+  </si>
+  <si>
+    <t>08/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 2013 DBV1DGK3 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>08/05/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
     <t xml:space="preserve">      Total for Devs</t>
   </si>
   <si>
+    <t xml:space="preserve">      Supplies &amp; Materials</t>
+  </si>
+  <si>
+    <t>08/31/2021</t>
+  </si>
+  <si>
+    <t>Printful</t>
+  </si>
+  <si>
+    <t>DBT CRD 0107 DB4JV2Y1 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total for Supplies &amp; Materials</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Expenditures</t>
   </si>
   <si>
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Sunday, Aug 08, 2021 10:23:07 AM GMT-7 - Accrual Basis</t>
+    <t>Thursday, Sep 30, 2021 09:08:29 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -314,7 +365,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - July, 2021</t>
+    <t>January - August, 2021</t>
   </si>
 </sst>
 </file>
@@ -421,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -440,7 +491,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -453,7 +504,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -466,7 +517,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -602,445 +653,420 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="B13" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="H13" t="n" s="5">
-        <v>3600.0</v>
+      <c r="C13" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="E13" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I13" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n" s="5">
-        <v>3600.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="n" s="5">
-        <v>3600.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>25</v>
+      <c r="B17" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="E17" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n" s="4">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H18" t="n" s="5">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s" s="3">
+      <c r="A19" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="D19" t="n" s="3">
-        <v>2001.0</v>
-      </c>
-      <c r="E19" t="n" s="3">
-        <v>2001.0</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="I19" t="n" s="4">
-        <v>1148.0</v>
+      <c r="H19" t="n" s="5">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="H20" t="n" s="5">
-        <v>1148.0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s" s="3">
+      <c r="A22" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="I22" t="n" s="4">
-        <v>71.45</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E23" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="F23" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>39</v>
-      </c>
       <c r="H23" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I23" t="n" s="4">
-        <v>73.99</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="I24" t="n" s="4">
-        <v>122.78</v>
+      <c r="A24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H24" t="n" s="5">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="H25" t="n" s="5">
-        <v>268.22</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>43</v>
+      <c r="H26" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I26" t="n" s="4">
+        <v>71.45</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" t="s" s="3">
+        <v>41</v>
+      </c>
       <c r="G27" t="s" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I27" t="n" s="4">
-        <v>17.98</v>
+        <v>73.99</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" t="s" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I28" t="n" s="4">
-        <v>98.94</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" t="s" s="3">
+        <v>41</v>
+      </c>
       <c r="G29" t="s" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I29" t="n" s="4">
-        <v>39.96</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H30" t="n" s="5">
-        <v>156.88</v>
+        <v>329.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" t="s" s="3">
+      <c r="F32" s="3"/>
+      <c r="G32" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I32" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G33" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="H32" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="I32" t="n" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="H33" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I33" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="H33" t="n" s="5">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="C34" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" t="s" s="3">
         <v>57</v>
       </c>
+      <c r="H34" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I34" t="n" s="4">
+        <v>39.96</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="A35" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="H35" t="n" s="5">
+        <v>156.88</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="G35" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="H35" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="I35" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G36" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="H36" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="I36" t="n" s="4">
-        <v>14.99</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="D37" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E37" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G37" t="s" s="3">
+        <v>62</v>
+      </c>
       <c r="H37" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I37" t="n" s="4">
-        <v>10.29</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" t="s" s="3">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s" s="3">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s" s="3">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I38" t="n" s="4">
-        <v>20.0</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G39" t="s" s="3">
+      <c r="A39" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="H39" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="I39" t="n" s="4">
-        <v>14.99</v>
+      <c r="H39" t="n" s="5">
+        <v>46.85</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="H40" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="I40" t="n" s="4">
-        <v>20.0</v>
+      <c r="A40" t="s" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I41" t="n" s="4">
-        <v>10.22</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="3">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" t="s" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I42" t="n" s="4">
         <v>20.0</v>
@@ -1051,19 +1077,23 @@
         <v>73</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D43" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E43" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="F43" t="s" s="3">
         <v>74</v>
       </c>
+      <c r="G43" s="3"/>
       <c r="H43" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I43" t="n" s="4">
-        <v>232.48</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="44">
@@ -1071,18 +1101,18 @@
         <v>75</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" t="s" s="3">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="3">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I44" t="n" s="4">
         <v>20.0</v>
@@ -1090,46 +1120,46 @@
     </row>
     <row r="45">
       <c r="B45" t="s" s="3">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" t="s" s="3">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s" s="3">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I45" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" t="s" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s" s="3">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>9.42</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="47">
@@ -1137,40 +1167,40 @@
         <v>78</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" t="s" s="3">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="3">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="3">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I47" t="n" s="4">
-        <v>20.0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" t="s" s="3">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="3">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I48" t="n" s="4">
         <v>20.0</v>
@@ -1178,65 +1208,63 @@
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" t="s" s="3">
-        <v>63</v>
-      </c>
+      <c r="F49" s="3"/>
       <c r="G49" t="s" s="3">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>14.99</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" t="s" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s" s="3">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>10.25</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" t="s" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I51" t="n" s="4">
         <v>20.0</v>
@@ -1244,65 +1272,65 @@
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" t="s" s="3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="3">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="3">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I52" t="n" s="4">
-        <v>20.0</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" t="s" s="3">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="3">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I53" t="n" s="4">
-        <v>9.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" t="s" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G54" t="s" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I54" t="n" s="4">
         <v>20.0</v>
@@ -1310,46 +1338,46 @@
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s" s="3">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s" s="3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H55" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I55" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" t="s" s="3">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I56" t="n" s="4">
-        <v>10.22</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="57">
@@ -1357,18 +1385,18 @@
         <v>88</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" t="s" s="3">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="3">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I57" t="n" s="4">
         <v>20.0</v>
@@ -1376,21 +1404,21 @@
     </row>
     <row r="58">
       <c r="B58" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" t="s" s="3">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G58" t="s" s="3">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I58" t="n" s="4">
         <v>20.0</v>
@@ -1398,96 +1426,329 @@
     </row>
     <row r="59">
       <c r="B59" t="s" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" t="s" s="3">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s" s="3">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="3">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I59" t="n" s="4">
-        <v>20.0</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s" s="3">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" t="s" s="3">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="3">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I60" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="I61" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H62" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I62" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="I63" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="G64" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="I64" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="C65" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="I65" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="C66" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="G66" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I66" t="n" s="4">
         <v>9.96</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H61" t="n" s="5">
-        <v>642.78</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H62" t="n" s="5">
-        <v>2221.88</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H63" t="n" s="5">
-        <v>2221.88</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H64" t="n" s="5">
-        <v>1378.12</v>
-      </c>
-    </row>
     <row r="67">
-      <c r="A67" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
+      <c r="B67" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="G67" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="I67" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="G68" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="H68" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I68" t="n" s="4">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="C69" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="I69" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="H70" t="n" s="5">
+        <v>693.04</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="H71" t="n" s="5">
+        <v>2373.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="G73" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="H73" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="I73" t="n" s="4">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="H74" t="n" s="5">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="H75" t="n" s="5">
+        <v>2391.89</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="H76" t="n" s="5">
+        <v>2608.11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A79:I79"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -98,9 +98,66 @@
     <t xml:space="preserve">      Total for Discounts given</t>
   </si>
   <si>
+    <t xml:space="preserve">      Merchandise</t>
+  </si>
+  <si>
+    <t>09/02/2021</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Stripe Payments</t>
+  </si>
+  <si>
+    <t>TRANSFER STRIPE XXXX5600 ID #ST-K4C0F8V6O2C9 21/09/02 TRACE #XXXX2159</t>
+  </si>
+  <si>
+    <t>Devs Checking (7527)</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>TRANSFER STRIPE XXXX5600 ID #ST-V4U7B5O0N3G1 21/09/07 TRACE #XXXX6827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total for Merchandise</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Revenue</t>
   </si>
   <si>
+    <t xml:space="preserve">   Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>09/03/2021</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>Printful</t>
+  </si>
+  <si>
+    <t>DBT CRD 1555 DBCOZZ96 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1029 DBYJVTCE PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total for Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Total for Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Gross Profit</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Expenditures</t>
   </si>
   <si>
@@ -122,9 +179,6 @@
     <t>Check               2001</t>
   </si>
   <si>
-    <t>Devs Checking (7527)</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Devs Insurance</t>
   </si>
   <si>
@@ -134,9 +188,6 @@
     <t>05/07/2021</t>
   </si>
   <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
     <t>Pizza Hut (Grant)</t>
   </si>
   <si>
@@ -161,6 +212,9 @@
     <t>DBT CRD 1215 DBYIB8HS PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 1538 DBYWCAWJ PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
   </si>
   <si>
@@ -329,6 +383,18 @@
     <t>08/05/2021</t>
   </si>
   <si>
+    <t>09/01/2021</t>
+  </si>
+  <si>
+    <t>09/05/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0439 DBL678QX AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 2108 DBUFR6AX MSFT E0100FP4UY MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -341,9 +407,6 @@
     <t>08/31/2021</t>
   </si>
   <si>
-    <t>Printful</t>
-  </si>
-  <si>
     <t>DBT CRD 0107 DB4JV2Y1 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
   </si>
   <si>
@@ -356,7 +419,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Thursday, Sep 30, 2021 09:08:29 AM GMT-7 - Accrual Basis</t>
+    <t>Friday, Oct 01, 2021 09:05:42 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -365,7 +428,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - August, 2021</t>
+    <t>January - September, 2021</t>
   </si>
 </sst>
 </file>
@@ -472,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -491,7 +554,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -504,7 +567,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -517,7 +580,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -737,600 +800,493 @@
       <c r="A19" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="H19" t="n" s="5">
-        <v>5000.0</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="B20" t="s" s="3">
         <v>29</v>
       </c>
+      <c r="C20" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I20" t="n" s="4">
+        <v>22.02</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="B21" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s" s="3">
         <v>30</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I21" t="n" s="4">
+        <v>92.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H22" t="n" s="5">
+        <v>114.11</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="D23" t="n" s="3">
-        <v>2001.0</v>
-      </c>
-      <c r="E23" t="n" s="3">
-        <v>2001.0</v>
-      </c>
-      <c r="F23" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I23" t="n" s="4">
-        <v>1148.0</v>
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="n" s="5">
+        <v>5114.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H24" t="n" s="5">
-        <v>1148.0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I26" t="n" s="4">
-        <v>71.45</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="3">
         <v>44</v>
       </c>
       <c r="H27" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I27" t="n" s="4">
-        <v>73.99</v>
+        <v>35.88</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="3">
+      <c r="A28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="C28" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s" s="3">
+      <c r="H28" t="n" s="5">
+        <v>71.41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H28" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I28" t="n" s="4">
-        <v>122.78</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="H29" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I29" t="n" s="4">
-        <v>60.91</v>
+      <c r="H29" t="n" s="5">
+        <v>71.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30" t="n" s="5">
-        <v>329.13</v>
+        <v>5042.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
         <v>50</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I32" t="n" s="4">
-        <v>17.98</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="G33" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="H33" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I33" t="n" s="4">
-        <v>98.94</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s" s="3">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D34" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E34" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="F34" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="G34" t="s" s="3">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I34" t="n" s="4">
-        <v>39.96</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H35" t="n" s="5">
-        <v>156.88</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" t="s" s="3">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s" s="3">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I37" t="n" s="4">
-        <v>6.0</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="H38" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I38" t="n" s="4">
+        <v>73.99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="H38" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I38" t="n" s="4">
-        <v>40.85</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="C39" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I39" t="n" s="4">
+        <v>122.78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="H39" t="n" s="5">
-        <v>46.85</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="C40" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s" s="3">
         <v>65</v>
+      </c>
+      <c r="H40" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I40" t="n" s="4">
+        <v>60.91</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="3">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="H41" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I41" t="n" s="4">
+        <v>86.37</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H42" t="n" s="5">
+        <v>415.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="G41" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I41" t="n" s="4">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="G42" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I42" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C43" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D43" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E43" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="F43" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I43" t="n" s="4">
-        <v>10.29</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="3">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" t="s" s="3">
-        <v>76</v>
-      </c>
+      <c r="F44" s="3"/>
       <c r="G44" t="s" s="3">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I44" t="n" s="4">
-        <v>20.0</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s" s="3">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" t="s" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I45" t="n" s="4">
-        <v>20.0</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" t="s" s="3">
-        <v>68</v>
-      </c>
+      <c r="F46" s="3"/>
       <c r="G46" t="s" s="3">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>14.99</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="G47" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I47" t="n" s="4">
-        <v>10.22</v>
+      <c r="A47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="n" s="5">
+        <v>156.88</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="C48" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="G48" t="s" s="3">
+      <c r="A48" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="H48" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I48" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="F49" t="s" s="3">
+        <v>79</v>
+      </c>
       <c r="G49" t="s" s="3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>232.48</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" t="s" s="3">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>14.99</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="3">
+      <c r="A51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H51" t="n" s="5">
+        <v>46.85</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="G51" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="H51" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I51" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="H52" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I52" t="n" s="4">
-        <v>9.42</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" t="s" s="3">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="3">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I53" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" t="s" s="3">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="3">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I54" t="n" s="4">
         <v>20.0</v>
@@ -1338,65 +1294,67 @@
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D55" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E55" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="F55" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s" s="3">
-        <v>69</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G55" s="3"/>
       <c r="H55" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I55" t="n" s="4">
-        <v>14.99</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" t="s" s="3">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s" s="3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H56" t="s" s="3">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I56" t="n" s="4">
-        <v>10.25</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s" s="3">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" t="s" s="3">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="3">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I57" t="n" s="4">
         <v>20.0</v>
@@ -1404,65 +1362,65 @@
     </row>
     <row r="58">
       <c r="B58" t="s" s="3">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" t="s" s="3">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="3">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I58" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s" s="3">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" t="s" s="3">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H59" t="s" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I59" t="n" s="4">
-        <v>9.98</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" t="s" s="3">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s" s="3">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I60" t="n" s="4">
         <v>20.0</v>
@@ -1470,109 +1428,107 @@
     </row>
     <row r="61">
       <c r="B61" t="s" s="3">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" t="s" s="3">
-        <v>71</v>
-      </c>
+      <c r="F61" s="3"/>
       <c r="G61" t="s" s="3">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H61" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I61" t="n" s="4">
-        <v>20.0</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s" s="3">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" t="s" s="3">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="3">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I62" t="n" s="4">
-        <v>10.22</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s" s="3">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" t="s" s="3">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="3">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I63" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s" s="3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" t="s" s="3">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s" s="3">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="H64" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I64" t="n" s="4">
-        <v>20.0</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s" s="3">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" t="s" s="3">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G65" t="s" s="3">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I65" t="n" s="4">
         <v>20.0</v>
@@ -1580,43 +1536,43 @@
     </row>
     <row r="66">
       <c r="B66" t="s" s="3">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" t="s" s="3">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="3">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="3">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I66" t="n" s="4">
-        <v>9.96</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" t="s" s="3">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="3">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I67" t="n" s="4">
         <v>20.0</v>
@@ -1624,131 +1580,483 @@
     </row>
     <row r="68">
       <c r="B68" t="s" s="3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" t="s" s="3">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s" s="3">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H68" t="s" s="3">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I68" t="n" s="4">
-        <v>10.26</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" t="s" s="3">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s" s="3">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="H69" t="s" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I69" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="C70" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G70" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I70" t="n" s="4">
         <v>20.0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="H70" t="n" s="5">
-        <v>693.04</v>
-      </c>
-    </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="H71" t="n" s="5">
-        <v>2373.9</v>
+      <c r="B71" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="G71" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="H71" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I71" t="n" s="4">
+        <v>9.98</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>107</v>
+      <c r="B72" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="C72" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G72" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H72" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I72" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" t="s" s="3">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="3">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="3">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I73" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="G74" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="H74" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I74" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G75" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H75" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I75" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s" s="3">
+        <v>115</v>
+      </c>
+      <c r="C76" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G76" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H76" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I76" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="C77" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G77" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H77" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I77" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="G78" t="s" s="3">
+        <v>118</v>
+      </c>
+      <c r="H78" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I78" t="n" s="4">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I79" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="C80" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="G80" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H80" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I80" t="n" s="4">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H81" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I81" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H82" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I82" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G83" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H83" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="I83" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="G84" t="s" s="3">
+        <v>125</v>
+      </c>
+      <c r="H84" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I84" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G85" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="H85" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I85" t="n" s="4">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="H86" t="n" s="5">
+        <v>770.87</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="H87" t="n" s="5">
+        <v>2538.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s" s="3">
+        <v>130</v>
+      </c>
+      <c r="C89" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="H89" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="I89" t="n" s="4">
         <v>17.99</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="H74" t="n" s="5">
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="H90" t="n" s="5">
         <v>17.99</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="H75" t="n" s="5">
-        <v>2391.89</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="H76" t="n" s="5">
-        <v>2608.11</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="H91" t="n" s="5">
+        <v>2556.09</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="H92" t="n" s="5">
+        <v>2486.61</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="A95:I95"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,12 @@
     <t>O'reilly Auto</t>
   </si>
   <si>
+    <t>11/17/2021</t>
+  </si>
+  <si>
+    <t>Mostly Serious</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Sponsorships</t>
   </si>
   <si>
@@ -143,12 +149,12 @@
     <t>Printful</t>
   </si>
   <si>
+    <t>DBT CRD 1029 DBYJVTCE PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
     <t>DBT CRD 1555 DBCOZZ96 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
   </si>
   <si>
-    <t>DBT CRD 1029 DBYJVTCE PRINTFUL, INC. CHARLOTTE NC C#4443</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Total for Cost of Goods Sold</t>
   </si>
   <si>
@@ -215,6 +221,18 @@
     <t>DBT CRD 1538 DBYWCAWJ PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>10/08/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1349 DBFJUP4X PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>11/05/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1337 DBKSBS2N PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
   </si>
   <si>
@@ -242,6 +260,30 @@
     <t>DBT CRD 1137 DBV8SOB7 NAME.COM, INC 7202492374 CO C#4443</t>
   </si>
   <si>
+    <t>09/30/2021</t>
+  </si>
+  <si>
+    <t>Name.com</t>
+  </si>
+  <si>
+    <t>DBT CRD 1154 DBV1HGGF NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>10/06/2021</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>DBT CRD 2329 DBZHPKLO MSFT E0100G10O0 MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
+    <t>11/08/2021</t>
+  </si>
+  <si>
+    <t>2012 39FLWQFG MICROSOFT WWW.MICROSOFT.COM REDMOND WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Office Supplies</t>
   </si>
   <si>
@@ -260,6 +302,15 @@
     <t>08/30/2021</t>
   </si>
   <si>
+    <t>11/29/2021</t>
+  </si>
+  <si>
+    <t>11/30/2021</t>
+  </si>
+  <si>
+    <t>TRAN FEE INTUIT 71567085 9215986202 ID #524771999141966 21000026552016</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Payment Fees (Intuit)</t>
   </si>
   <si>
@@ -296,9 +347,6 @@
     <t>01/05/2021</t>
   </si>
   <si>
-    <t>Microsoft Corporation</t>
-  </si>
-  <si>
     <t>Office 365 Business Essentials ($5/mo/user)</t>
   </si>
   <si>
@@ -389,10 +437,55 @@
     <t>09/05/2021</t>
   </si>
   <si>
+    <t>DBT CRD 2108 DBUFR6AX MSFT E0100FP4UY MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
     <t>DBT CRD 0439 DBL678QX AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
   </si>
   <si>
-    <t>DBT CRD 2108 DBUFR6AX MSFT E0100FP4UY MSBILL.INFO WA C#4443</t>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>1Password</t>
+  </si>
+  <si>
+    <t>1Password Families Plan (Annual)</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1845 DBW3CHBN AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>10/15/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0609 DBN4DSKH MEETUP ORG SUB 6M NEW YORK NY C#4443</t>
+  </si>
+  <si>
+    <t>10/18/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1133 DBVR2GLC NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>11/01/2021</t>
+  </si>
+  <si>
+    <t>11/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 2156 DBJD76UR AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1148 DBBLNGIR NAME.COM, INC 7202492374 CO C#4443</t>
   </si>
   <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
@@ -419,7 +512,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Friday, Oct 01, 2021 09:05:42 AM GMT-7 - Accrual Basis</t>
+    <t>Monday, Dec 13, 2021 07:13:18 PM GMT-8 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -428,7 +521,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - September, 2021</t>
+    <t>January - November, 2021</t>
   </si>
 </sst>
 </file>
@@ -535,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -554,7 +647,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -567,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -580,7 +673,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -742,190 +835,208 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="B14" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="H14" t="n" s="5">
-        <v>5100.0</v>
+      <c r="C14" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n" s="3">
+        <v>1184.0</v>
+      </c>
+      <c r="E14" t="n" s="3">
+        <v>1184.0</v>
+      </c>
+      <c r="F14" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n" s="5">
-        <v>5100.0</v>
+        <v>6600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="H16" t="n" s="5">
+        <v>6600.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="3">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C18" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="D17" t="n" s="3">
+      <c r="D18" t="n" s="3">
         <v>1183.0</v>
       </c>
-      <c r="E17" t="n" s="3">
+      <c r="E18" t="n" s="3">
         <v>1183.0</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F18" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="G17" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s" s="3">
+      <c r="G18" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="I17" t="n" s="4">
-        <v>-100.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H18" t="n" s="5">
+      <c r="I18" t="n" s="4">
         <v>-100.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H19" t="n" s="5">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s" s="3">
+      <c r="A20" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="I20" t="n" s="4">
-        <v>22.02</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" t="s" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n" s="4">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="I21" t="n" s="4">
+      <c r="G22" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I22" t="n" s="4">
         <v>92.09</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H22" t="n" s="5">
-        <v>114.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" t="n" s="5">
-        <v>5114.11</v>
+        <v>114.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H24" t="n" s="5">
+        <v>6614.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s" s="3">
+      <c r="A26" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="I26" t="n" s="4">
-        <v>35.53</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I27" t="n" s="4">
         <v>35.88</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H28" t="n" s="5">
-        <v>71.41</v>
+      <c r="B28" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I28" t="n" s="4">
+        <v>35.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="n" s="5">
         <v>71.41</v>
@@ -933,108 +1044,94 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="n" s="5">
-        <v>5042.7</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="H31" t="n" s="5">
+        <v>6542.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s" s="3">
+      <c r="A34" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="D34" t="n" s="3">
+    </row>
+    <row r="35">
+      <c r="B35" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="D35" t="n" s="3">
         <v>2001.0</v>
       </c>
-      <c r="E34" t="n" s="3">
+      <c r="E35" t="n" s="3">
         <v>2001.0</v>
       </c>
-      <c r="F34" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="H34" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="I34" t="n" s="4">
-        <v>1148.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="F35" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="H35" t="n" s="5">
+      <c r="G35" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I35" t="n" s="4">
         <v>1148.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H36" t="n" s="5">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" t="s" s="3">
+      <c r="A37" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="G37" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="H37" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="I37" t="n" s="4">
-        <v>71.45</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" t="s" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s" s="3">
         <v>61</v>
       </c>
       <c r="H38" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I38" t="n" s="4">
-        <v>73.99</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="39">
@@ -1042,21 +1139,21 @@
         <v>62</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" t="s" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s" s="3">
         <v>63</v>
       </c>
       <c r="H39" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I39" t="n" s="4">
-        <v>122.78</v>
+        <v>73.99</v>
       </c>
     </row>
     <row r="40">
@@ -1064,386 +1161,386 @@
         <v>64</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" t="s" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H40" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I40" t="n" s="4">
-        <v>60.91</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="3">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I41" t="n" s="4">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="H42" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I42" t="n" s="4">
         <v>86.37</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="H42" t="n" s="5">
-        <v>415.5</v>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>68</v>
+      <c r="B43" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I43" t="n" s="4">
+        <v>62.03</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" t="s" s="3">
+        <v>60</v>
+      </c>
       <c r="G44" t="s" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I44" t="n" s="4">
+        <v>69.36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="n" s="5">
+        <v>546.89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I47" t="n" s="4">
         <v>17.98</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="G45" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="H45" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="I45" t="n" s="4">
+    <row r="48">
+      <c r="B48" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I48" t="n" s="4">
         <v>98.94</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="C46" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="I46" t="n" s="4">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H47" t="n" s="5">
-        <v>156.88</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" t="s" s="3">
-        <v>79</v>
-      </c>
+      <c r="F49" s="3"/>
       <c r="G49" t="s" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>6.0</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" t="s" s="3">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>40.85</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H51" t="n" s="5">
-        <v>46.85</v>
+      <c r="B51" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I51" t="n" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>83</v>
+      <c r="B52" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I52" t="n" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s" s="3">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="I53" t="n" s="4">
-        <v>14.99</v>
+      <c r="A53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H53" t="n" s="5">
+        <v>226.86</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="G54" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="H54" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="I54" t="n" s="4">
-        <v>20.0</v>
+      <c r="A54" t="s" s="2">
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="D55" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E55" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
       <c r="F55" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="G55" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G55" t="s" s="3">
+        <v>94</v>
+      </c>
       <c r="H55" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I55" t="n" s="4">
-        <v>10.29</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="G56" t="s" s="3">
         <v>94</v>
       </c>
-      <c r="G56" t="s" s="3">
-        <v>95</v>
-      </c>
       <c r="H56" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I56" t="n" s="4">
-        <v>20.0</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s" s="3">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" t="s" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s" s="3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I57" t="n" s="4">
-        <v>20.0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s" s="3">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" t="s" s="3">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s" s="3">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H58" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I58" t="n" s="4">
-        <v>14.99</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="C59" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="G59" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="H59" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="I59" t="n" s="4">
-        <v>10.22</v>
+      <c r="A59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="H59" t="n" s="5">
+        <v>134.35</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C60" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="G60" t="s" s="3">
-        <v>95</v>
-      </c>
-      <c r="H60" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="I60" t="n" s="4">
-        <v>20.0</v>
+      <c r="A60" t="s" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" t="s" s="3">
+        <v>103</v>
+      </c>
       <c r="G61" t="s" s="3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H61" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I61" t="n" s="4">
-        <v>232.48</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="62">
@@ -1451,18 +1548,18 @@
         <v>101</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" t="s" s="3">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s" s="3">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="H62" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I62" t="n" s="4">
         <v>20.0</v>
@@ -1470,65 +1567,67 @@
     </row>
     <row r="63">
       <c r="B63" t="s" s="3">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D63" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E63" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="F63" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s" s="3">
-        <v>87</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G63" s="3"/>
       <c r="H63" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I63" t="n" s="4">
-        <v>14.99</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" t="s" s="3">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="3">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H64" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I64" t="n" s="4">
-        <v>9.42</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s" s="3">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" t="s" s="3">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G65" t="s" s="3">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H65" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I65" t="n" s="4">
         <v>20.0</v>
@@ -1536,21 +1635,21 @@
     </row>
     <row r="66">
       <c r="B66" t="s" s="3">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" t="s" s="3">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G66" t="s" s="3">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H66" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I66" t="n" s="4">
         <v>14.99</v>
@@ -1558,43 +1657,43 @@
     </row>
     <row r="67">
       <c r="B67" t="s" s="3">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" t="s" s="3">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G67" t="s" s="3">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H67" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I67" t="n" s="4">
-        <v>20.0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s" s="3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" t="s" s="3">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="3">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H68" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I68" t="n" s="4">
         <v>20.0</v>
@@ -1602,109 +1701,107 @@
     </row>
     <row r="69">
       <c r="B69" t="s" s="3">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" t="s" s="3">
-        <v>92</v>
-      </c>
+      <c r="F69" s="3"/>
       <c r="G69" t="s" s="3">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H69" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I69" t="n" s="4">
-        <v>10.25</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s" s="3">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" t="s" s="3">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G70" t="s" s="3">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H70" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I70" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" t="s" s="3">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G71" t="s" s="3">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H71" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I71" t="n" s="4">
-        <v>9.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s" s="3">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" t="s" s="3">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G72" t="s" s="3">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H72" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I72" t="n" s="4">
-        <v>20.0</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="3">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" t="s" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="3">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H73" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I73" t="n" s="4">
         <v>20.0</v>
@@ -1712,65 +1809,65 @@
     </row>
     <row r="74">
       <c r="B74" t="s" s="3">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" t="s" s="3">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s" s="3">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H74" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I74" t="n" s="4">
-        <v>10.22</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s" s="3">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" t="s" s="3">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s" s="3">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H75" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I75" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s" s="3">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" t="s" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="3">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H76" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I76" t="n" s="4">
         <v>20.0</v>
@@ -1778,109 +1875,109 @@
     </row>
     <row r="77">
       <c r="B77" t="s" s="3">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" t="s" s="3">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G77" t="s" s="3">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="H77" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I77" t="n" s="4">
-        <v>20.0</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s" s="3">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" t="s" s="3">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s" s="3">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H78" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I78" t="n" s="4">
-        <v>9.96</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s" s="3">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" t="s" s="3">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s" s="3">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H79" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I79" t="n" s="4">
-        <v>20.0</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s" s="3">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" t="s" s="3">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="3">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H80" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I80" t="n" s="4">
-        <v>10.26</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s" s="3">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" t="s" s="3">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s" s="3">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H81" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I81" t="n" s="4">
         <v>20.0</v>
@@ -1888,43 +1985,43 @@
     </row>
     <row r="82">
       <c r="B82" t="s" s="3">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" t="s" s="3">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G82" t="s" s="3">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="H82" t="s" s="3">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I82" t="n" s="4">
-        <v>20.0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s" s="3">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" t="s" s="3">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="3">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H83" t="s" s="3">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I83" t="n" s="4">
         <v>20.0</v>
@@ -1932,131 +2029,525 @@
     </row>
     <row r="84">
       <c r="B84" t="s" s="3">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" t="s" s="3">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G84" t="s" s="3">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H84" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I84" t="n" s="4">
-        <v>10.25</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s" s="3">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" t="s" s="3">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="3">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H85" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I85" t="n" s="4">
-        <v>27.58</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="H86" t="n" s="5">
-        <v>770.87</v>
+      <c r="B86" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="G86" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="H86" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I86" t="n" s="4">
+        <v>9.96</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="H87" t="n" s="5">
-        <v>2538.1</v>
+      <c r="B87" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="G87" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="H87" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I87" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>129</v>
+      <c r="B88" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="C88" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="G88" t="s" s="3">
+        <v>137</v>
+      </c>
+      <c r="H88" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I88" t="n" s="4">
+        <v>10.26</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s" s="3">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s" s="3">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" t="s" s="3">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s" s="3">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H89" t="s" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I89" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="C90" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="G90" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="H90" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I90" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s" s="3">
+        <v>140</v>
+      </c>
+      <c r="C91" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="H91" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I91" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="3">
+        <v>141</v>
+      </c>
+      <c r="H92" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I92" t="n" s="4">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="G93" t="s" s="3">
+        <v>142</v>
+      </c>
+      <c r="H93" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I93" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="C94" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="G94" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="H94" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I94" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s" s="3">
+        <v>144</v>
+      </c>
+      <c r="C95" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" t="s" s="3">
+        <v>145</v>
+      </c>
+      <c r="G95" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="H95" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I95" t="n" s="4">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="C96" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="G96" t="s" s="3">
+        <v>148</v>
+      </c>
+      <c r="H96" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I96" t="n" s="4">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s" s="3">
+        <v>149</v>
+      </c>
+      <c r="C97" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="H97" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I97" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s" s="3">
+        <v>150</v>
+      </c>
+      <c r="C98" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="3">
+        <v>151</v>
+      </c>
+      <c r="H98" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I98" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="C99" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="H99" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I99" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s" s="3">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="G100" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="H100" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I100" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s" s="3">
+        <v>155</v>
+      </c>
+      <c r="C101" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="G101" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="H101" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I101" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="C102" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="H102" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="I102" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C103" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="H103" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I103" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="H104" t="n" s="5">
+        <v>1069.81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="H105" t="n" s="5">
+        <v>3125.91</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s" s="3">
+        <v>161</v>
+      </c>
+      <c r="C107" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="G107" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="H107" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I107" t="n" s="4">
         <v>17.99</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="H90" t="n" s="5">
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="H108" t="n" s="5">
         <v>17.99</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H91" t="n" s="5">
-        <v>2556.09</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="H92" t="n" s="5">
-        <v>2486.61</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="H109" t="n" s="5">
+        <v>3143.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="H110" t="n" s="5">
+        <v>3398.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A113:I113"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2021-sgfdevs-statement-of-activity-detail.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Statement of Activity De" r:id="rId3" sheetId="1"/>
+    <sheet name="Statement of Activity Detail" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -149,12 +149,12 @@
     <t>Printful</t>
   </si>
   <si>
+    <t>DBT CRD 1555 DBCOZZ96 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
     <t>DBT CRD 1029 DBYJVTCE PRINTFUL, INC. CHARLOTTE NC C#4443</t>
   </si>
   <si>
-    <t>DBT CRD 1555 DBCOZZ96 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Total for Cost of Goods Sold</t>
   </si>
   <si>
@@ -233,6 +233,21 @@
     <t>DBT CRD 1337 DBKSBS2N PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>12/03/2021</t>
+  </si>
+  <si>
+    <t>Andy B's Springfield</t>
+  </si>
+  <si>
+    <t>DBT CRD 1759 DBHTWK9F ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1903 DBUJB327 ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1839 DBLG9620 ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
   </si>
   <si>
@@ -284,6 +299,12 @@
     <t>2012 39FLWQFG MICROSOFT WWW.MICROSOFT.COM REDMOND WA C#4443</t>
   </si>
   <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1949 DBTQ82B4 MSFT E0100GPXMG MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Office Supplies</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t>TRAN FEE INTUIT 71567085 9215986202 ID #524771999141966 21000026552016</t>
   </si>
   <si>
+    <t>12/17/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Payment Fees (Intuit)</t>
   </si>
   <si>
@@ -323,21 +347,21 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>Logic Forte (QuickBooks Subscription)</t>
+  </si>
+  <si>
+    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
     <t>Zoom Video</t>
   </si>
   <si>
     <t>Zoom Pro Monthly Subscription</t>
   </si>
   <si>
-    <t>Accounts Payable (A/P)</t>
-  </si>
-  <si>
-    <t>Logic Forte (QuickBooks Subscription)</t>
-  </si>
-  <si>
-    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
-  </si>
-  <si>
     <t>01/04/2021</t>
   </si>
   <si>
@@ -488,6 +512,15 @@
     <t>DBT CRD 1148 DBBLNGIR NAME.COM, INC 7202492374 CO C#4443</t>
   </si>
   <si>
+    <t>12/01/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0609 DBYNKASC AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -512,7 +545,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Monday, Dec 13, 2021 07:13:18 PM GMT-8 - Accrual Basis</t>
+    <t>Sunday, Jan 16, 2022 06:45:04 PM GMT-8 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -521,7 +554,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - November, 2021</t>
+    <t>January - December 2021</t>
   </si>
 </sst>
 </file>
@@ -628,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -647,7 +680,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -660,7 +693,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -673,7 +706,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1009,7 +1042,7 @@
         <v>35</v>
       </c>
       <c r="I27" t="n" s="4">
-        <v>35.88</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="28">
@@ -1031,7 +1064,7 @@
         <v>35</v>
       </c>
       <c r="I28" t="n" s="4">
-        <v>35.53</v>
+        <v>35.88</v>
       </c>
     </row>
     <row r="29">
@@ -1267,105 +1300,107 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="B45" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="H45" t="n" s="5">
-        <v>546.89</v>
+      <c r="C45" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I45" t="n" s="4">
+        <v>58.37</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="B46" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" t="s" s="3">
         <v>74</v>
+      </c>
+      <c r="G46" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I46" t="n" s="4">
+        <v>58.37</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s" s="3">
         <v>43</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="F47" t="s" s="3">
+        <v>74</v>
+      </c>
       <c r="G47" t="s" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I47" t="n" s="4">
-        <v>17.98</v>
+        <v>186.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" t="s" s="3">
+      <c r="A48" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="H48" t="n" s="5">
+        <v>850.38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="H48" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I48" t="n" s="4">
-        <v>98.94</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I49" t="n" s="4">
-        <v>39.96</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s" s="3">
         <v>43</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" t="s" s="3">
-        <v>83</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" t="s" s="3">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>19.98</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s" s="3">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s" s="3">
         <v>43</v>
@@ -1373,56 +1408,85 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" t="s" s="3">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I51" t="n" s="4">
-        <v>25.0</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s" s="3">
         <v>43</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" t="s" s="3">
+      <c r="F52" s="3"/>
+      <c r="G52" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="H52" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I52" t="n" s="4">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s" s="3">
         <v>89</v>
       </c>
-      <c r="H52" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I52" t="n" s="4">
+      <c r="H53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I53" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I54" t="n" s="4">
         <v>25.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H53" t="n" s="5">
-        <v>226.86</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s" s="3">
         <v>43</v>
@@ -1430,7 +1494,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="3">
         <v>94</v>
@@ -1439,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="I55" t="n" s="4">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="56">
@@ -1452,320 +1516,291 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" t="s" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I56" t="n" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="H57" t="n" s="5">
+        <v>251.86</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="H59" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I59" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="H60" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I60" t="n" s="4">
         <v>40.85</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="G57" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="H57" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I57" t="n" s="4">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="G58" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="H58" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I58" t="n" s="4">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="H59" t="n" s="5">
-        <v>134.35</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" t="s" s="3">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s" s="3">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H61" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I61" t="n" s="4">
-        <v>14.99</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" t="s" s="3">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G62" t="s" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H62" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I62" t="n" s="4">
-        <v>20.0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="G63" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="H63" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I63" t="n" s="4">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="H64" t="n" s="5">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="C63" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D63" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E63" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="F63" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I63" t="n" s="4">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="C64" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="G64" t="s" s="3">
-        <v>111</v>
-      </c>
-      <c r="H64" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="I64" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="C65" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="G65" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="H65" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="I65" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s" s="3">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" t="s" s="3">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s" s="3">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H66" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I66" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s" s="3">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" t="s" s="3">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H67" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I67" t="n" s="4">
-        <v>10.22</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s" s="3">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D68" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E68" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="F68" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s" s="3">
-        <v>111</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G68" s="3"/>
       <c r="H68" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I68" t="n" s="4">
-        <v>20.0</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="F69" t="s" s="3">
+        <v>91</v>
+      </c>
       <c r="G69" t="s" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H69" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I69" t="n" s="4">
-        <v>232.48</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s" s="3">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" t="s" s="3">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s" s="3">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H70" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I70" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s" s="3">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" t="s" s="3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G71" t="s" s="3">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H71" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I71" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s" s="3">
         <v>43</v>
@@ -1773,35 +1808,35 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" t="s" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G72" t="s" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H72" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I72" t="n" s="4">
-        <v>9.42</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" t="s" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s" s="3">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I73" t="n" s="4">
         <v>20.0</v>
@@ -1809,43 +1844,41 @@
     </row>
     <row r="74">
       <c r="B74" t="s" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" t="s" s="3">
-        <v>106</v>
-      </c>
+      <c r="F74" s="3"/>
       <c r="G74" t="s" s="3">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H74" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I74" t="n" s="4">
-        <v>20.0</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" t="s" s="3">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G75" t="s" s="3">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H75" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I75" t="n" s="4">
         <v>14.99</v>
@@ -1853,21 +1886,21 @@
     </row>
     <row r="76">
       <c r="B76" t="s" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" t="s" s="3">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G76" t="s" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H76" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I76" t="n" s="4">
         <v>20.0</v>
@@ -1875,7 +1908,7 @@
     </row>
     <row r="77">
       <c r="B77" t="s" s="3">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s" s="3">
         <v>43</v>
@@ -1883,35 +1916,35 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" t="s" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G77" t="s" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H77" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I77" t="n" s="4">
-        <v>10.25</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s" s="3">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" t="s" s="3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="3">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H78" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I78" t="n" s="4">
         <v>20.0</v>
@@ -1919,43 +1952,43 @@
     </row>
     <row r="79">
       <c r="B79" t="s" s="3">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" t="s" s="3">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s" s="3">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H79" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I79" t="n" s="4">
-        <v>9.98</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" t="s" s="3">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G80" t="s" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H80" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I80" t="n" s="4">
         <v>20.0</v>
@@ -1963,21 +1996,21 @@
     </row>
     <row r="81">
       <c r="B81" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" t="s" s="3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G81" t="s" s="3">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H81" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I81" t="n" s="4">
         <v>20.0</v>
@@ -1985,7 +2018,7 @@
     </row>
     <row r="82">
       <c r="B82" t="s" s="3">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s" s="3">
         <v>43</v>
@@ -1993,35 +2026,35 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" t="s" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G82" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H82" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I82" t="n" s="4">
-        <v>10.22</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" t="s" s="3">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G83" t="s" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H83" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I83" t="n" s="4">
         <v>20.0</v>
@@ -2029,43 +2062,43 @@
     </row>
     <row r="84">
       <c r="B84" t="s" s="3">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s" s="3">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" t="s" s="3">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G84" t="s" s="3">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="H84" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I84" t="n" s="4">
-        <v>20.0</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" t="s" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G85" t="s" s="3">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H85" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I85" t="n" s="4">
         <v>20.0</v>
@@ -2073,87 +2106,87 @@
     </row>
     <row r="86">
       <c r="B86" t="s" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" t="s" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G86" t="s" s="3">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H86" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I86" t="n" s="4">
-        <v>9.96</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s" s="3">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s" s="3">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" t="s" s="3">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G87" t="s" s="3">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="H87" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I87" t="n" s="4">
-        <v>20.0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" t="s" s="3">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G88" t="s" s="3">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H88" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I88" t="n" s="4">
-        <v>10.26</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s" s="3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" t="s" s="3">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G89" t="s" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H89" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I89" t="n" s="4">
         <v>20.0</v>
@@ -2161,21 +2194,21 @@
     </row>
     <row r="90">
       <c r="B90" t="s" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" t="s" s="3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s" s="3">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H90" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I90" t="n" s="4">
         <v>20.0</v>
@@ -2183,51 +2216,51 @@
     </row>
     <row r="91">
       <c r="B91" t="s" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s" s="3">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" t="s" s="3">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="G91" t="s" s="3">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="H91" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I91" t="n" s="4">
-        <v>20.0</v>
+        <v>9.96</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s" s="3">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" t="s" s="3">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G92" t="s" s="3">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="H92" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I92" t="n" s="4">
-        <v>27.58</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s" s="3">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s" s="3">
         <v>43</v>
@@ -2235,35 +2268,35 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" t="s" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G93" t="s" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H93" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I93" t="n" s="4">
-        <v>10.25</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="s" s="3">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" t="s" s="3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G94" t="s" s="3">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H94" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I94" t="n" s="4">
         <v>20.0</v>
@@ -2271,73 +2304,73 @@
     </row>
     <row r="95">
       <c r="B95" t="s" s="3">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C95" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" t="s" s="3">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="G95" t="s" s="3">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="H95" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I95" t="n" s="4">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="s" s="3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" t="s" s="3">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G96" t="s" s="3">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="H96" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I96" t="n" s="4">
-        <v>9.94</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s" s="3">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s" s="3">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" t="s" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G97" t="s" s="3">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="H97" t="s" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I97" t="n" s="4">
-        <v>20.0</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s" s="3">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s" s="3">
         <v>43</v>
@@ -2345,60 +2378,60 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" t="s" s="3">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="G98" t="s" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H98" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I98" t="n" s="4">
-        <v>98.94</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s" s="3">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" t="s" s="3">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G99" t="s" s="3">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="H99" t="s" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I99" t="n" s="4">
-        <v>19.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s" s="3">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" t="s" s="3">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G100" t="s" s="3">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="H100" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I100" t="n" s="4">
-        <v>20.0</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="101">
@@ -2411,7 +2444,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" t="s" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G101" t="s" s="3">
         <v>156</v>
@@ -2420,26 +2453,26 @@
         <v>35</v>
       </c>
       <c r="I101" t="n" s="4">
-        <v>10.25</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s" s="3">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" t="s" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G102" t="s" s="3">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H102" t="s" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I102" t="n" s="4">
         <v>20.0</v>
@@ -2447,107 +2480,283 @@
     </row>
     <row r="103">
       <c r="B103" t="s" s="3">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s" s="3">
         <v>43</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="F103" t="s" s="3">
+        <v>83</v>
+      </c>
       <c r="G103" t="s" s="3">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H103" t="s" s="3">
         <v>35</v>
       </c>
       <c r="I103" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="C104" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s" s="3">
+        <v>161</v>
+      </c>
+      <c r="H104" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I104" t="n" s="4">
         <v>19.98</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="H104" t="n" s="5">
-        <v>1069.81</v>
-      </c>
-    </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="H105" t="n" s="5">
-        <v>3125.91</v>
+      <c r="B105" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="G105" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="H105" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="I105" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>160</v>
+      <c r="B106" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="C106" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="G106" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="H106" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I106" t="n" s="4">
+        <v>10.25</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s" s="3">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="C107" t="s" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="G107" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="H107" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="I107" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" t="s" s="3">
+        <v>165</v>
+      </c>
+      <c r="H108" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I108" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s" s="3">
+        <v>166</v>
+      </c>
+      <c r="C109" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="G109" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="H109" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="I109" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C110" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="G110" t="s" s="3">
+        <v>167</v>
+      </c>
+      <c r="H110" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I110" t="n" s="4">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s" s="3">
+        <v>168</v>
+      </c>
+      <c r="C111" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="G111" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="H111" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="I111" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="H112" t="n" s="5">
+        <v>1119.77</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="H113" t="n" s="5">
+        <v>3548.11</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s" s="3">
+        <v>172</v>
+      </c>
+      <c r="C115" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="G107" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="H107" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I107" t="n" s="4">
+      <c r="G115" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="H115" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I115" t="n" s="4">
         <v>17.99</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="H108" t="n" s="5">
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="H116" t="n" s="5">
         <v>17.99</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="H109" t="n" s="5">
-        <v>3143.9</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="H110" t="n" s="5">
-        <v>3398.8</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="H117" t="n" s="5">
+        <v>3566.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="H118" t="n" s="5">
+        <v>2976.6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A121:I121"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
